--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1001494.221286035</v>
+        <v>998934.0371261698</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>51.12839504521797</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>381.4859536980651</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>50.51917299275917</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,10 +871,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>81.21182540108224</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>53.83847841953872</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>7.15726119972732</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>79.21366476695214</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>157.9206545937562</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>266.4388874644133</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>72.59050573349676</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>163.965609577349</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329725</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>177.3737035358669</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1427,10 +1427,10 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009503</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>149.2497196696423</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337184</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.27179222793495</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,13 +1819,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>188.040133050827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518786</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695393</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>1.207068174437506</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695567</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824942</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462226</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>190.4281593935574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189114</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>91.66636605273428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740363</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>60.11729550773457</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520969</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>106.5290632934501</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>43.73846614325569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833515</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>4.665762779849501</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520978</v>
       </c>
     </row>
     <row r="38">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.2579495257412</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695501</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174133</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182133</v>
       </c>
       <c r="E43" t="n">
-        <v>17.95257707283449</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983369</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>179.1359327421201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.695380320764</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.695380320764</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4404,10 +4404,10 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
@@ -4419,16 +4419,16 @@
         <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>524.9806774183635</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>356.0444944904566</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>356.0444944904566</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>208.1314009080635</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>927.4217213921333</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>927.4217213921333</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>706.6291422486032</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554974</v>
+        <v>805.7846820932068</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>805.7846820932068</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>447.5189834864563</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>440.289426719055</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1955.98961239422</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1582.52385413314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419619</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100995</v>
       </c>
       <c r="M6" t="n">
         <v>1480.485115687205</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>596.848764009698</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>427.9125810817911</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>824.8383149077154</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>596.848764009698</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>596.848764009698</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016651</v>
+        <v>1067.685314683799</v>
       </c>
       <c r="C8" t="n">
-        <v>1085.57475207624</v>
+        <v>1067.685314683799</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>709.4196160770482</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>440.289426719055</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1831.29040492069</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>1457.82464665961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.137109080773</v>
+        <v>1067.685314683799</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145198</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625327</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1861.380351120609</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236614</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.0311677684842</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0949848405774</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1563.122376909349</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1563.122376909349</v>
+        <v>1274.19554437845</v>
       </c>
       <c r="U10" t="n">
-        <v>1563.122376909349</v>
+        <v>985.0772068822877</v>
       </c>
       <c r="V10" t="n">
-        <v>1308.437888703462</v>
+        <v>730.3927186764008</v>
       </c>
       <c r="W10" t="n">
-        <v>1019.020718666502</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="X10" t="n">
-        <v>791.0311677684842</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y10" t="n">
-        <v>791.0311677684842</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2219.090375303036</v>
+        <v>1535.258832689348</v>
       </c>
       <c r="C11" t="n">
-        <v>1850.127858362624</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1491.862159755874</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.073907157629</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>695.088002368022</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>280.5125566976687</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455661</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971441</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604049</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604049</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>3369.295305604049</v>
+        <v>2685.463762990361</v>
       </c>
       <c r="X11" t="n">
-        <v>2995.829547342969</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2605.690215367158</v>
+        <v>1921.858672753469</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376502</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>477.1621322376502</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>977.3905023848067</v>
+        <v>1413.763713908848</v>
       </c>
       <c r="N12" t="n">
-        <v>1518.698809735874</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
         <v>1991.670362601623</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>689.7120376423459</v>
+        <v>203.8650582458538</v>
       </c>
       <c r="C13" t="n">
-        <v>520.775854714439</v>
+        <v>203.8650582458538</v>
       </c>
       <c r="D13" t="n">
-        <v>370.6592153021031</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="E13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288892</v>
+        <v>717.500225288891</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
-        <v>1925.345446418675</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1925.345446418675</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1636.254739858963</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1381.570251653076</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1092.153081616116</v>
+        <v>834.295653117641</v>
       </c>
       <c r="X13" t="n">
-        <v>1092.153081616116</v>
+        <v>606.3061022196237</v>
       </c>
       <c r="Y13" t="n">
-        <v>871.3605024725856</v>
+        <v>385.5135230760935</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
@@ -5355,16 +5355,16 @@
         <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060315</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>242.926066115635</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>733.6583989593863</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.4721904516375</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>781.5360075237306</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="D16" t="n">
-        <v>631.4193681113949</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113949</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2025.52680186348</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1770.842313657593</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1580.902785323425</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1352.913234425407</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.120655281877</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327595</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704547</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806529</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036629992</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.532750177311</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.580456911439</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835317</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711959</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888029</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908926</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057725</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.635642676656</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639696</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.228921741678</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.228921741678</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784064</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504995</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.109076706663</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.119525808646</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6388,10 +6388,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2386.238542663357</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2203.383708318261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1983.782243341203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.782243341203</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135316</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135316</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237298</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656489</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5309703533133</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>368.6178767709202</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>368.6178767709203</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>201.4217774858003</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,19 +6780,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011937</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>550.6376870732868</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>550.6376870732868</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2402.782814748689</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2183.18134977163</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1894.106123115828</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314334</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400681</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835328</v>
+        <v>344.9174178121613</v>
       </c>
       <c r="D37" t="n">
-        <v>697.527634571197</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="E37" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1970.320130882544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.635642676657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1198.228921741679</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703079</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7260,13 +7260,13 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.306025422647</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>929.3698424947402</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230589</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,19 +7333,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7369,13 +7369,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1500.747069396417</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1279.954490252887</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311996</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032927</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>482.639061290957</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614394</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241561</v>
+        <v>45.44676101130824</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>265.0304328515144</v>
+        <v>186.5911984019049</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>27.39221874048051</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803501</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>112.1950131448103</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726201</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>36.67293733803385</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613728968</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.16217041863422</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>98.48286528576401</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>166.0397529241903</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459338</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303784</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>61.70948393027058</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459155</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.257951202387119</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393052</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>33.76564955277378</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>137.2878198583889</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823402</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>212.7396875474388</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3575234924711879</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237473</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>128.4813855737347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459435</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>46.57372264691702</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>891176.6704067813</v>
+        <v>891176.6704067809</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969925.109580773</v>
+        <v>969925.1095807729</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.3032431429</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>975285.3032431431</v>
+        <v>975285.303243143</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253557</v>
-      </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.8397795039</v>
       </c>
       <c r="F2" t="n">
         <v>441473.8744009171</v>
@@ -26335,10 +26335,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295035</v>
@@ -26347,13 +26347,13 @@
         <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295036</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357064</v>
+        <v>325187.1190357058</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051382</v>
+        <v>166521.347105139</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557868</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456818</v>
+        <v>84929.59434456799</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848923</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224528</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7408.247504413624</v>
@@ -26433,22 +26433,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719672</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719662</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621471</v>
+        <v>86093.72216214704</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-889230.4461371527</v>
+        <v>-889230.4461371526</v>
       </c>
       <c r="C6" t="n">
-        <v>225521.3374387666</v>
+        <v>225521.3374387668</v>
       </c>
       <c r="D6" t="n">
-        <v>225521.3374387669</v>
+        <v>225521.3374387668</v>
       </c>
       <c r="E6" t="n">
-        <v>-13308.24892276288</v>
+        <v>-13518.21316660731</v>
       </c>
       <c r="F6" t="n">
-        <v>167309.5629414462</v>
+        <v>167263.6579458798</v>
       </c>
       <c r="G6" t="n">
-        <v>324133.4953082979</v>
+        <v>324098.7573828623</v>
       </c>
       <c r="H6" t="n">
-        <v>335300.7315438767</v>
+        <v>335265.993618441</v>
       </c>
       <c r="I6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184409</v>
       </c>
       <c r="J6" t="n">
-        <v>167695.553733894</v>
+        <v>167660.8158084584</v>
       </c>
       <c r="K6" t="n">
-        <v>335300.7315438766</v>
+        <v>335265.9936184408</v>
       </c>
       <c r="L6" t="n">
-        <v>335300.7315438768</v>
+        <v>335265.993618441</v>
       </c>
       <c r="M6" t="n">
-        <v>250371.1371993085</v>
+        <v>250336.3992738729</v>
       </c>
       <c r="N6" t="n">
-        <v>291518.3249853874</v>
+        <v>291483.5870599516</v>
       </c>
       <c r="O6" t="n">
-        <v>332277.4335666521</v>
+        <v>332242.6956412164</v>
       </c>
       <c r="P6" t="n">
-        <v>335300.7315438767</v>
+        <v>335265.9936184408</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086478</v>
+        <v>981.388327808647</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770167</v>
+        <v>278.1053753770162</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086089</v>
+        <v>340.8034957086084</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.75696251736</v>
       </c>
       <c r="G4" t="n">
         <v>12.5629977736412</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086089</v>
+        <v>340.8034957086081</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
         <v>12.5629977736412</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086089</v>
+        <v>340.8034957086084</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173592</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
         <v>12.5629977736412</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>314.1444967257896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27430,10 +27430,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>4.751984957988498</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.90187503017208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>170.9258179227458</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>311.4344133514688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>374.7731088725345</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>69.40180825126022</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>196.7623870269267</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>115.4914826078485</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>122.0719546282407</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>56.78308641986291</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.371097540361198e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-2.264368486033591e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.238049662788398e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-3.478061396208098e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.842028120379947e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31279,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31449,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,16 +31686,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>647.415215888843</v>
+        <v>660.6327957845325</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>179.5642660017257</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533296</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32075,10 +32075,10 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4226615147952</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32087,7 +32087,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,22 +33500,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>465.217062384076</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>502.5232631188761</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34208,16 +34208,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202792</v>
+        <v>380.8714430074312</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="M6" t="n">
-        <v>631.9617651335549</v>
+        <v>553.5225306839453</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065825</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.45443753893058</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>505.2811819668248</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>36.96802155728123</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936567</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5812225404362</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,22 +37148,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>322.6208179396315</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>368.5488557045459</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37856,16 +37856,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060463</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
